--- a/medicine/Bioéthique/One_Voice/One_Voice.xlsx
+++ b/medicine/Bioéthique/One_Voice/One_Voice.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">One Voice est une association loi de 1908 de droit alsacien-mosellan, fondée en 1995 par Muriel Arnal sous le parrainage du professeur Théodore Monod.
 L’association milite pour les droits humains, les droits des animaux, le droit de l’environnement et le respect de la vie sous toutes ses formes. L’association dénonce et s’oppose à toutes formes de chasse, d’élevages d’animaux terrestres ou marins en vue d’être mangés et à la consommation de viandes sous quelque forme que ce soit. Elle a pour objectif de faire évoluer le sort des animaux afin qu’ils soient reconnus comme des êtres sensibles, mais aussi de faire évoluer les regards et de combattre la souffrance animale.
@@ -513,11 +525,13 @@
           <t>Objectifs et actions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">One Voice travaille sur différentes thématiques : l'interdiction de l’exploitation des animaux captifs pour le divertissement (cirques[1] et delphinariums[2]), la prise en charge de l'errance animale[3], la cruauté envers les animaux familiers[4], la réforme radicale de la chasse[5] et l’interdiction de ses formes les plus cruelles (la chasse à courre[6], les chasses traditionnelles[7] notamment), la protection des animaux sauvages libres[8] ou élevés et abattus pour leur fourrure[9]. L’association milite également contre l’expérimentation animale et en faveur de la mise en place de méthodes alternatives[10]. 
-L’association développe ses campagnes via différents moyens d’action : la réalisation d’enquêtes en immersion, la mise en place d’actions de sensibilisation et de lobbying, le lancement de procédures administratives et judiciaires[11].
-Un réseau de bénévoles permet également l’organisation d’actions militantes à travers des rassemblements non-violents[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Voice travaille sur différentes thématiques : l'interdiction de l’exploitation des animaux captifs pour le divertissement (cirques et delphinariums), la prise en charge de l'errance animale, la cruauté envers les animaux familiers, la réforme radicale de la chasse et l’interdiction de ses formes les plus cruelles (la chasse à courre, les chasses traditionnelles notamment), la protection des animaux sauvages libres ou élevés et abattus pour leur fourrure. L’association milite également contre l’expérimentation animale et en faveur de la mise en place de méthodes alternatives. 
+L’association développe ses campagnes via différents moyens d’action : la réalisation d’enquêtes en immersion, la mise en place d’actions de sensibilisation et de lobbying, le lancement de procédures administratives et judiciaires.
+Un réseau de bénévoles permet également l’organisation d’actions militantes à travers des rassemblements non-violents.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">One Voice ne bénéficie pas de subventions publiques. Elle fonctionne uniquement grâce aux dons et legs[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Voice ne bénéficie pas de subventions publiques. Elle fonctionne uniquement grâce aux dons et legs.
 Ses comptes sont audités chaque année et certifiés par un commissaire aux comptes.
 </t>
         </is>
@@ -580,40 +596,430 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Errance féline
-One Voice dénonce la situation des chats errants en France qui touche à minima 11 millions d’animaux[14]. Plusieurs projets ont vu le jour comme à Villeneuve-lès-Béziers[15], à Veix[16] ou encore à Poix-Terron[17].
-Expérimentation animale
-L’expérimentation animale demeure au cœur de l’action de One Voice depuis sa création[10]. L’association demande notamment plus de transparence sur le nombre d’animaux utilisés et sur l’objectif des expérimentations, le financement de la recherche de méthodes substitutives et l'emploi systématique de celles-ci[18]. Dans ce cadre, elle a développé un label à destination des produits cosmétiques, alimentaires et d'entretien[19]. Ce label a été arrêté en 2023.
-One Voice se mobilise pour dénoncer le sort des animaux élevés à des fins d’expérimentation[20] ainsi que le sort des animaux utilisés dans le cadre d’expérimentations.
-En 2022 et 2023, l'association lance une campagne et un recours administratif contre l'agrément en expérimentation animale du laboratoire NeuroSpin du CEA, dont les rapports d'inspection obtenus par l'association révèlent des manquements graves et répétés, en particulier dans le traitement des primates utilisés en expérimentation[21],[22].
-En janvier 2024, l'association, accompagnée du Parti animaliste, organise une campagne de sensibilisation à la violence sur les animaux en laboratoire[23].
-Chasse
-One Voice considère que la chasse est un loisir pratiqué pour le seul plaisir des humains qui engendre de multiples souffrances pour les animaux. Elle y est donc opposée et milite pour une réforme radicale de la chasse en France[5] qui comprendrait notamment : l’interdiction des formes les plus cruelles (vénerie sous terre[24], chasse à courre[6], chasse en enclos[25], chasses traditionnelles[7]), l’indépendance de la police de la chasse, l’interdiction de chasser des espèces en mauvais état de conservation[26]. 
-L'association dénonce également les conditions de vie des chiens de chasse[27].
-One Voice a saisi le Conseil d'État pour contester une dérogation permettant à certains chasseurs de l'Aveyron et de Lozère de pratiquer la chasse traditionnelle à la grive à l'aide de tendelles, en déclarant que cela enfreigne selon elle le droit européen, et notamment la directive de 2009 sur la conservation des oiseaux sauvages. En 2023, le Conseil d'Etat lui a donné raison et a annulé le refus en 2021 du ministère de la Transition écologique d'abroger l'arrêté de 2005 accordant un sursis à ce mode de chasse[28].
-Présence d'animaux sauvages dans les cirques
-One Voice s’oppose à la détention des animaux sauvages dans les cirques. L’association considère que les conditions de détention des animaux dans ces établissements sont contraires au respect de leurs besoins biologiques[29]. 
-Dans le cadre de son combat, l’association mène des enquêtes en immersion dans les cirques. L’association porte plainte à chaque cas de maltraitance[30].
-En juin 2020, l’association obtient la saisie d’un lion[31] et de quatre lionnes[32]. Quelques mois plus tard, ce sont dix tigres qui sont saisis au profit de l’association[33].
-Delphinariums
-One Voice se bat pour le respect des cétacés et réclame pour eux le statut de personne animale. L’association demande l’interdiction de la reproduction et de la détention de cétacés (orques et dauphins) dans les delphinariums français et mène des enquêtes pour dénoncer les conditions de vie des mammifères marins en captivité[34],[35]. 
-One Voice s'est opposé à la vente des orques de Marineland d'Antibes pour le Japon[36],[37]. Une plainte est déposé par l'association après la mort d'un des animaux[38],[39],[40]. L'association propose de les installer dans un sanctuaire[41]. 
-Animaux élevés pour leur fourrure
-One Voice demande l’interdiction des élevages de fourrure en France (visons, lapins angoras[42]) et dans le monde. Pour alerter l’opinion et les pouvoirs publics, l’association mène des enquêtes en immersion qui lui permettent de lancer des procédures administratives et judiciaires[43],[44].
-Des actions de sensibilisation sont organisés dans des villes pour montrer le sort accordé aux lapin agora pour leur fourrure[45].
-Corrida
-Depuis sa création, One Voice est opposée à la corrida et demande son interdiction invoquant les souffrances infligées aux animaux. 
-À travers une enquête en immersion réalisée à Nîmes[46], l'association dénonce notamment la « banalisation de la violence » dans les écoles taurines où des enfants sont entraînés à tuer de jeunes animaux. 
-Tradition du cou de l'oie
-Après de la fête patronale de Saint-Bonnet-près-Riom où des têtes d'animaux morts avaient été arrachées, One Voice a porté plainte devant le tribunal judiciaire de Clermont-Ferrand pour savoir comment ces oies, poules et autres lapins ont été tués[47].
-Saisies
-L'association participe à des saisies d'animaux dans des élevages aux conditions contestées[48],[49].
-Plan loup 2024-2029
-L'association organise des campagnes de pétition contre le plan loup 2024-2029[50].
-Abatage de chiens errants
-En 2024, l'association attaque en justice un arrêté pris par le préfet de l'Aveyron autorisant d'abattre des chiens errants, soupçonnés d'avoir attaqué des troupeaux. L'association estime que le manque de surveillance des troupeaux est en cause[51],[52].
-Ours Mischa
-En 2024, l'association obtient la condamnation d'éleveurs de Chauvigny-du-Perche, accusés d'être responsable de la mort d'un ours nommé Mischa[53]. 
+          <t>Errance féline</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Voice dénonce la situation des chats errants en France qui touche à minima 11 millions d’animaux. Plusieurs projets ont vu le jour comme à Villeneuve-lès-Béziers, à Veix ou encore à Poix-Terron.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Expérimentation animale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’expérimentation animale demeure au cœur de l’action de One Voice depuis sa création. L’association demande notamment plus de transparence sur le nombre d’animaux utilisés et sur l’objectif des expérimentations, le financement de la recherche de méthodes substitutives et l'emploi systématique de celles-ci. Dans ce cadre, elle a développé un label à destination des produits cosmétiques, alimentaires et d'entretien. Ce label a été arrêté en 2023.
+One Voice se mobilise pour dénoncer le sort des animaux élevés à des fins d’expérimentation ainsi que le sort des animaux utilisés dans le cadre d’expérimentations.
+En 2022 et 2023, l'association lance une campagne et un recours administratif contre l'agrément en expérimentation animale du laboratoire NeuroSpin du CEA, dont les rapports d'inspection obtenus par l'association révèlent des manquements graves et répétés, en particulier dans le traitement des primates utilisés en expérimentation,.
+En janvier 2024, l'association, accompagnée du Parti animaliste, organise une campagne de sensibilisation à la violence sur les animaux en laboratoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chasse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Voice considère que la chasse est un loisir pratiqué pour le seul plaisir des humains qui engendre de multiples souffrances pour les animaux. Elle y est donc opposée et milite pour une réforme radicale de la chasse en France qui comprendrait notamment : l’interdiction des formes les plus cruelles (vénerie sous terre, chasse à courre, chasse en enclos, chasses traditionnelles), l’indépendance de la police de la chasse, l’interdiction de chasser des espèces en mauvais état de conservation. 
+L'association dénonce également les conditions de vie des chiens de chasse.
+One Voice a saisi le Conseil d'État pour contester une dérogation permettant à certains chasseurs de l'Aveyron et de Lozère de pratiquer la chasse traditionnelle à la grive à l'aide de tendelles, en déclarant que cela enfreigne selon elle le droit européen, et notamment la directive de 2009 sur la conservation des oiseaux sauvages. En 2023, le Conseil d'Etat lui a donné raison et a annulé le refus en 2021 du ministère de la Transition écologique d'abroger l'arrêté de 2005 accordant un sursis à ce mode de chasse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Présence d'animaux sauvages dans les cirques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Voice s’oppose à la détention des animaux sauvages dans les cirques. L’association considère que les conditions de détention des animaux dans ces établissements sont contraires au respect de leurs besoins biologiques. 
+Dans le cadre de son combat, l’association mène des enquêtes en immersion dans les cirques. L’association porte plainte à chaque cas de maltraitance.
+En juin 2020, l’association obtient la saisie d’un lion et de quatre lionnes. Quelques mois plus tard, ce sont dix tigres qui sont saisis au profit de l’association.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Delphinariums</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Voice se bat pour le respect des cétacés et réclame pour eux le statut de personne animale. L’association demande l’interdiction de la reproduction et de la détention de cétacés (orques et dauphins) dans les delphinariums français et mène des enquêtes pour dénoncer les conditions de vie des mammifères marins en captivité,. 
+One Voice s'est opposé à la vente des orques de Marineland d'Antibes pour le Japon,. Une plainte est déposé par l'association après la mort d'un des animaux. L'association propose de les installer dans un sanctuaire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Animaux élevés pour leur fourrure</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">One Voice demande l’interdiction des élevages de fourrure en France (visons, lapins angoras) et dans le monde. Pour alerter l’opinion et les pouvoirs publics, l’association mène des enquêtes en immersion qui lui permettent de lancer des procédures administratives et judiciaires,.
+Des actions de sensibilisation sont organisés dans des villes pour montrer le sort accordé aux lapin agora pour leur fourrure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Corrida</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa création, One Voice est opposée à la corrida et demande son interdiction invoquant les souffrances infligées aux animaux. 
+À travers une enquête en immersion réalisée à Nîmes, l'association dénonce notamment la « banalisation de la violence » dans les écoles taurines où des enfants sont entraînés à tuer de jeunes animaux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tradition du cou de l'oie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après de la fête patronale de Saint-Bonnet-près-Riom où des têtes d'animaux morts avaient été arrachées, One Voice a porté plainte devant le tribunal judiciaire de Clermont-Ferrand pour savoir comment ces oies, poules et autres lapins ont été tués.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Saisies</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association participe à des saisies d'animaux dans des élevages aux conditions contestées,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Plan loup 2024-2029</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association organise des campagnes de pétition contre le plan loup 2024-2029.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Abatage de chiens errants</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2024, l'association attaque en justice un arrêté pris par le préfet de l'Aveyron autorisant d'abattre des chiens errants, soupçonnés d'avoir attaqué des troupeaux. L'association estime que le manque de surveillance des troupeaux est en cause,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>One_Voice</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/One_Voice</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Campagnes notables</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Ours Mischa</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2024, l'association obtient la condamnation d'éleveurs de Chauvigny-du-Perche, accusés d'être responsable de la mort d'un ours nommé Mischa. 
 </t>
         </is>
       </c>
